--- a/ActiTime/Integartion Test Cases.xlsx
+++ b/ActiTime/Integartion Test Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ActiTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CCB179-2356-477D-9DC5-0953FB16CB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488E032-A15F-44B9-976E-FECD6C6504D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C9BCE58-FC8D-435E-8AEC-ABC75B39C156}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">Expected Result </t>
-  </si>
-  <si>
-    <t>1.</t>
   </si>
   <si>
     <t xml:space="preserve">Open the browser and Enter the URL 
@@ -55,9 +52,6 @@
     <t>Welcome Page along with Login should be displayed.</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter valid username(admin) and  valid password(admin123) and click on login Btn.    </t>
   </si>
   <si>
@@ -65,29 +59,11 @@
 2. Dashboard page should be displayed.</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
     <t>Click on Users Module</t>
   </si>
   <si>
     <t>1.User List Page should be displayed 
 2.All users should be listed</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Click the Create New User button and enter the valid user details(User1).</t>
   </si>
   <si>
     <t>1.Create new user Page should be displayed.
@@ -95,6 +71,141 @@
 3.User1 should be listed in Users list.</t>
   </si>
   <si>
+    <t xml:space="preserve">Click on Task Module </t>
+  </si>
+  <si>
+    <t>Task Page should be displayed along with its submodules.</t>
+  </si>
+  <si>
+    <t>Click on  Projects &amp; Customers.</t>
+  </si>
+  <si>
+    <t>Active Projects &amp; Customers page should displayed along with Task1.</t>
+  </si>
+  <si>
+    <t>1.Click on Task1
+2.Assign the task to User1.</t>
+  </si>
+  <si>
+    <t>Task1 should get assign to User1.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Author By   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        :   Aniket Rathod
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Reviewed By  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     :   Jatin Soni
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Reviewed Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  :   1 February 2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Approval Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    :   4  February 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -246,7 +357,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Type : Integration TestCase
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Integration TestCase
 </t>
     </r>
     <r>
@@ -293,112 +425,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Click on Task Module </t>
-  </si>
-  <si>
-    <t>Task Page should be displayed along with its submodules.</t>
-  </si>
-  <si>
-    <t>Click on  Projects &amp; Customers.</t>
-  </si>
-  <si>
-    <t>Active Projects &amp; Customers page should displayed along with Task1.</t>
-  </si>
-  <si>
-    <t>1.Click on Task1
-2.Assign the task to User1.</t>
-  </si>
-  <si>
-    <t>Task1 should get assign to User1.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Author By   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">        :   Aniket Rathod
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Reviewed By  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     :   Jatin Soni
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Reviewed Date </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  :   1 February 2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Approval Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    :   4  February 2025</t>
-    </r>
+    <t>Click on Create New User button and enter the valid user details(User1).</t>
   </si>
 </sst>
 </file>
@@ -780,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD9DAD-B821-496B-A56A-EBB7160C1343}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,14 +818,15 @@
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="82" style="6" customWidth="1"/>
     <col min="3" max="3" width="60.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -808,87 +836,93 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ActiTime/Integartion Test Cases.xlsx
+++ b/ActiTime/Integartion Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ActiTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488E032-A15F-44B9-976E-FECD6C6504D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D090DDB-3A97-4920-8ABE-E30612350A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C9BCE58-FC8D-435E-8AEC-ABC75B39C156}"/>
   </bookViews>
@@ -465,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -473,25 +473,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,119 +828,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD9DAD-B821-496B-A56A-EBB7160C1343}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="82" style="6" customWidth="1"/>
+    <col min="2" max="2" width="82" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.109375" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
     </row>
